--- a/test/MD95-2042.xlsx
+++ b/test/MD95-2042.xlsx
@@ -7,14 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Serie Id-1FB8C5DF" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Serie Id-6198B9AF" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Serie Id-1FDB2383" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Serie Id-3B2BB420" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Serie Id-125575B2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Serie Id-16C67B7D" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Serie Id-E001AEC2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="INTERPOLATION Id-784A2BB4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Information" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Serie Id-1FB8C5DF" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Serie Id-6198B9AF" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Serie Id-1FDB2383" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Serie Id-3B2BB420" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Serie Id-125575B2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Serie Id-16C67B7D" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Serie Id-E001AEC2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="INTERPOLATION Id-784A2BB4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -420,6 +421,50 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="60" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Created with PyAnalyseries v5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>This file has been created with PyAnalySeries software.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Do not modify or accordingly with documentation.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2985,7 +3030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8556,7 +8601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8640,7 +8685,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>#dbdb8d</t>
+          <t>#2d9edb</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -13919,7 +13964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20394,7 +20439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25965,7 +26010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25979,7 +26024,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="28" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="9" customWidth="1" min="4" max="4"/>
@@ -34064,7 +34109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -34078,7 +34123,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="31" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="9" customWidth="1" min="4" max="4"/>
@@ -42163,7 +42208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/test/MD95-2042.xlsx
+++ b/test/MD95-2042.xlsx
@@ -16,6 +16,7 @@
     <sheet name="Serie Id-16C67B7D" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Serie Id-E001AEC2" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="INTERPOLATION Id-784A2BB4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Serie Id-947891E7" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -435,7 +436,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Created with PyAnalyseries v5.1</t>
+          <t>Created with PyAnalyseries v5.11</t>
         </is>
       </c>
     </row>
@@ -452,6 +453,905 @@
         <is>
           <t>Do not modify or accordingly with documentation.</t>
         </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="147" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Y axis inverted</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>History</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4.616354728979383</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Serie</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>#17becf</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>&lt;BR&gt;Random serie with parameters :&lt;ul&gt;&lt;li&gt;Start point : 0&lt;li&gt;End point : 100&lt;li&gt;Nb of points : 101&lt;li&gt;Min value : 10.0&lt;li&gt;Max value : 0.0&lt;/ul&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4.704728522069167</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6.756385233227967</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8.377200042440881</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3.695824135662834</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7.310084680577762</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9.364340789115454</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4.161744921274591</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4.161551976968068</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8.648871348737339</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1316491740562631</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>7.405681999260885</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>7.869139580146247</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6.665113630753171</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.7723348543525943</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5.82967673774871</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.780276155798164</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.689901465520891</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.274924244315865</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>7.153159960577887</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2.078070024578991</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>9.196140698693377</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4.06954703105169</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.198509914762378</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>9.209784022540987</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.330613328766519</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5.855506287555724</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3.360605204305976</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4.234074022213205</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>9.514445849450798</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>6.952222541404164</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>8.397100567478578</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>6.764061475095419</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4.48967441543547</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>6.27286515202738</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3.80761246890076</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>8.088876994504691</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1.62743182039813</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>5.869268990783834</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>7.650676678371976</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>9.913730322552381</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>6.68387378550197</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2.901819487962458</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>7.294955157012416</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2.740469941824734</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.5627678345161702</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3.86675000680455</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>5.357352564686538</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>4.106248970240658</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>8.274162491263318</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.1649244163676911</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1.793541656893631</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>6.550107950927321</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5085768275913971</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1.266361941458755</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>5.54579702245848</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3.144260849587899</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1.017038634828699</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>5.674015606310344</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>6.515965625936344</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>9.152327679078171</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>9.155239109685915</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>5.488876689304742</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1.921997272135529</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>5.05788578523727</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>3.3465811522814</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2.648844349476996</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>8.055624935027456</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>7.865163450104396</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>3.981219085338519</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1.253337759104823</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>5.063681845178226</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>9.179734313901445</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>8.825088049766066</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>8.090296976301163</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>5.227279233871106</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>6.232507881535875</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>7.764344617616757</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1.931610905363957</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1.276771547482927</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>9.397458350799177</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>7.579565548698236</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>6.548144128056757</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>3.084495827917925</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.6942412976219492</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>8.638327695017759</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1.810430374518595</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.0805093778168342</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>5.740598257151801</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2.461718300924438</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>5.275826070625317</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>8.645417597594665</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>6.844738706832412</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>6.151064242647691</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1.855646055571933</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3.143041964804971</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>5.762269088772339</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>2.767588671600982</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>4.939361466042474</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>7.069557833560712</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1.255898798954155</v>
       </c>
     </row>
   </sheetData>
